--- a/public/assets/Sample.xlsx
+++ b/public/assets/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamran Ali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2C0C74-43A3-4887-9AC0-76491555C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119FE3A4-7B4F-46BD-97AE-0268BB63A7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B98A65E9-54DB-4470-B950-722E3E719BA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Sources</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Source Name</t>
-  </si>
-  <si>
-    <t>28-01-20244</t>
   </si>
   <si>
     <t>ID Name</t>
@@ -534,7 +531,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,8 +572,8 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
+      <c r="B2" s="8">
+        <v>45319</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -588,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/Sample.xlsx
+++ b/public/assets/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamran Ali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CA-Agent\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119FE3A4-7B4F-46BD-97AE-0268BB63A7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBB5091-2C1F-4CD3-B430-E8D04AC10179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B98A65E9-54DB-4470-B950-722E3E719BA0}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B98A65E9-54DB-4470-B950-722E3E719BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Sources</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Leads Date</t>
   </si>
 </sst>
 </file>
@@ -528,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BF3E88-EFE7-4573-8D01-1CDF339509AC}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,9 +546,10 @@
     <col min="5" max="5" width="19.21875" customWidth="1"/>
     <col min="6" max="6" width="18.88671875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +571,11 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>

--- a/public/assets/Sample.xlsx
+++ b/public/assets/Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CA-Agent\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamran Ali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBB5091-2C1F-4CD3-B430-E8D04AC10179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63712A9-B520-46C3-A487-930658E5754E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B98A65E9-54DB-4470-B950-722E3E719BA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B98A65E9-54DB-4470-B950-722E3E719BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sources</t>
   </si>
@@ -39,28 +39,16 @@
     <t>Language</t>
   </si>
   <si>
-    <t>ID NAME</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>kannada</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
-    <t>Source Name</t>
-  </si>
-  <si>
-    <t>ID Name</t>
-  </si>
-  <si>
-    <t>Agent Name</t>
-  </si>
-  <si>
     <t>Leads Date</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -70,7 +58,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,20 +73,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,14 +87,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,41 +126,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -198,23 +138,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -531,71 +456,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BF3E88-EFE7-4573-8D01-1CDF339509AC}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36" style="4" customWidth="1"/>
+    <col min="3" max="4" width="23.109375" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="6" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="8">
-        <v>45319</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>919538576002</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
